--- a/examples/sources/data/unsolved/to_schedule/2018-12-18.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-18.xlsx
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>43452</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>43452</v>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>43452</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>43452</v>
